--- a/Collections/Евро/Germany/#EURO#Germany#Regular[2002-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Germany/#EURO#Germany#Regular[2002-present]#circulation_quality.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -1376,7 +1376,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="446">
   <si>
     <t>-</t>
   </si>
@@ -2696,6 +2696,24 @@
   </si>
   <si>
     <t>Bi-Metallic</t>
+  </si>
+  <si>
+    <t>eurocollection</t>
+  </si>
+  <si>
+    <t>High convenience single table of varieties with photos</t>
+  </si>
+  <si>
+    <t>High convenience set of tables table of actual coins with photos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obv: Opaque upper section </t>
+  </si>
+  <si>
+    <t>200.000</t>
+  </si>
+  <si>
+    <t>Turning stars</t>
   </si>
 </sst>
 </file>
@@ -2900,7 +2918,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2945,6 +2963,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2978,19 +3005,45 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="94">
+  <dxfs count="98">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3752,16 +3805,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="93"/>
-    <tableColumn id="2" name="Link" dataDxfId="92" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="91"/>
+    <tableColumn id="1" name="№" dataDxfId="97"/>
+    <tableColumn id="2" name="Link" dataDxfId="96" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4032,7 +4085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -4051,35 +4104,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -4172,19 +4225,19 @@
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="18" t="s">
         <v>68</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -4305,19 +4358,19 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="18" t="s">
         <v>53</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -4921,7 +4974,7 @@
     <mergeCell ref="J1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J20 K3:M3 N3:N20">
-    <cfRule type="containsText" dxfId="90" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -4936,7 +4989,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K6 K8:K20">
-    <cfRule type="containsText" dxfId="89" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -4951,7 +5004,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="containsText" dxfId="88" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -4966,7 +5019,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="containsText" dxfId="87" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -4981,7 +5034,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L20">
-    <cfRule type="containsText" dxfId="86" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -4996,7 +5049,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:L6">
-    <cfRule type="containsText" dxfId="85" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -5011,7 +5064,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="containsText" dxfId="84" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -5026,7 +5079,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="containsText" dxfId="83" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -5041,7 +5094,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M20">
-    <cfRule type="containsText" dxfId="82" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -5056,7 +5109,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:M6">
-    <cfRule type="containsText" dxfId="81" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -5071,7 +5124,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="containsText" dxfId="80" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -5086,7 +5139,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="containsText" dxfId="79" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -5129,35 +5182,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -5999,7 +6052,7 @@
     <mergeCell ref="J1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:N20">
-    <cfRule type="containsText" dxfId="78" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -6042,35 +6095,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -6163,19 +6216,19 @@
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="18" t="s">
         <v>68</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -6912,7 +6965,7 @@
     <mergeCell ref="J1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J20 K3:M3 N3:N20">
-    <cfRule type="containsText" dxfId="77" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -6927,7 +6980,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K20">
-    <cfRule type="containsText" dxfId="76" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -6942,7 +6995,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="containsText" dxfId="75" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -6957,7 +7010,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:L20">
-    <cfRule type="containsText" dxfId="74" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -6972,7 +7025,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="containsText" dxfId="73" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -6987,7 +7040,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:M20">
-    <cfRule type="containsText" dxfId="72" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -7002,7 +7055,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="containsText" dxfId="71" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -7024,13 +7077,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7045,35 +7098,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -7154,14 +7207,14 @@
         <v>0</v>
       </c>
       <c r="O3" s="17" t="str">
-        <f t="shared" ref="O3:O20" si="0">IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-"),AND(M3&gt;1,M3&lt;&gt;"-"),AND(N3&gt;1,N3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="O3:O21" si="0">IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-"),AND(M3&gt;1,M3&lt;&gt;"-"),AND(N3&gt;1,N3&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>437</v>
@@ -7169,46 +7222,45 @@
       <c r="C4" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>443</v>
+      </c>
       <c r="E4" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>289</v>
+        <v>438</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
       </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="K4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="17"/>
       <c r="Q4" s="4"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>437</v>
@@ -7217,22 +7269,22 @@
         <v>435</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="29" t="s">
-        <v>244</v>
+      <c r="E5" s="10" t="s">
+        <v>243</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>290</v>
-      </c>
-      <c r="J5" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="J5" s="1">
         <v>0</v>
       </c>
       <c r="K5" s="1">
@@ -7244,17 +7296,18 @@
       <c r="M5" s="1">
         <v>0</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="1">
         <v>0</v>
       </c>
       <c r="O5" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>437</v>
@@ -7263,31 +7316,31 @@
         <v>435</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>262</v>
+      <c r="E6" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>290</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -7300,7 +7353,7 @@
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>437</v>
@@ -7309,20 +7362,20 @@
         <v>435</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>53</v>
+      <c r="E7" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>262</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>0</v>
@@ -7346,29 +7399,29 @@
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>437</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>263</v>
+      <c r="E8" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>53</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>0</v>
@@ -7392,7 +7445,7 @@
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>437</v>
@@ -7401,20 +7454,20 @@
         <v>436</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>264</v>
+      <c r="E9" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>263</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>0</v>
@@ -7438,7 +7491,7 @@
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>437</v>
@@ -7447,20 +7500,20 @@
         <v>436</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>265</v>
+      <c r="E10" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>264</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>0</v>
@@ -7484,7 +7537,7 @@
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>437</v>
@@ -7493,20 +7546,20 @@
         <v>436</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>266</v>
+      <c r="E11" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>265</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>0</v>
@@ -7530,7 +7583,7 @@
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>437</v>
@@ -7539,20 +7592,20 @@
         <v>436</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>267</v>
+      <c r="E12" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>266</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>0</v>
@@ -7576,7 +7629,7 @@
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>437</v>
@@ -7585,20 +7638,20 @@
         <v>436</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="I13" s="29" t="s">
-        <v>268</v>
+      <c r="E13" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>267</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>0</v>
@@ -7622,7 +7675,7 @@
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>437</v>
@@ -7631,20 +7684,20 @@
         <v>436</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="I14" s="29" t="s">
-        <v>269</v>
+      <c r="E14" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>268</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>0</v>
@@ -7668,7 +7721,7 @@
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>437</v>
@@ -7677,20 +7730,20 @@
         <v>436</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="I15" s="29" t="s">
-        <v>270</v>
+      <c r="E15" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>269</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>0</v>
@@ -7714,7 +7767,7 @@
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>437</v>
@@ -7723,20 +7776,20 @@
         <v>436</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="H16" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="I16" s="29" t="s">
-        <v>271</v>
+      <c r="E16" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>270</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>0</v>
@@ -7760,7 +7813,7 @@
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>437</v>
@@ -7769,20 +7822,20 @@
         <v>436</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>272</v>
+      <c r="E17" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>271</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>0</v>
@@ -7806,7 +7859,7 @@
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>437</v>
@@ -7815,34 +7868,34 @@
         <v>436</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1">
-        <v>0</v>
-      </c>
-      <c r="N18" s="1">
+      <c r="E18" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O18" s="17" t="str">
@@ -7852,7 +7905,7 @@
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>437</v>
@@ -7862,19 +7915,19 @@
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -7898,7 +7951,7 @@
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>437</v>
@@ -7908,36 +7961,82 @@
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G21" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I21" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0</v>
-      </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
-      <c r="O20" s="17" t="str">
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7950,8 +8049,8 @@
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="J1:N1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J3:J20 K3:M5 N3:N20">
-    <cfRule type="containsText" dxfId="70" priority="17" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J3:J21 K5:M6 N5:N21 K3:N4">
+    <cfRule type="containsText" dxfId="74" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -7965,9 +8064,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:K20">
-    <cfRule type="containsText" dxfId="69" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
+  <conditionalFormatting sqref="K19:K21">
+    <cfRule type="containsText" dxfId="73" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
       <colorScale>
@@ -7980,9 +8079,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:K17">
-    <cfRule type="containsText" dxfId="68" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K6))))</formula>
+  <conditionalFormatting sqref="K7:K18">
+    <cfRule type="containsText" dxfId="72" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
       <colorScale>
@@ -7995,9 +8094,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L18:L20">
-    <cfRule type="containsText" dxfId="67" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L18))))</formula>
+  <conditionalFormatting sqref="L19:L21">
+    <cfRule type="containsText" dxfId="71" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
@@ -8010,9 +8109,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L17">
-    <cfRule type="containsText" dxfId="66" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L6))))</formula>
+  <conditionalFormatting sqref="L7:L18">
+    <cfRule type="containsText" dxfId="70" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
@@ -8025,9 +8124,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M18:M20">
-    <cfRule type="containsText" dxfId="65" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M18))))</formula>
+  <conditionalFormatting sqref="M19:M21">
+    <cfRule type="containsText" dxfId="69" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -8040,9 +8139,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M17">
-    <cfRule type="containsText" dxfId="64" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M6))))</formula>
+  <conditionalFormatting sqref="M7:M18">
+    <cfRule type="containsText" dxfId="68" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -8069,7 +8168,7 @@
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8084,35 +8183,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -8221,7 +8320,7 @@
       <c r="H4" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="18" t="s">
         <v>68</v>
       </c>
       <c r="J4" s="1">
@@ -8256,19 +8355,19 @@
         <v>435</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="18" t="s">
         <v>244</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="18" t="s">
         <v>290</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -8440,19 +8539,19 @@
         <v>435</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="30" t="s">
+      <c r="E9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>0</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="19" t="s">
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -9033,7 +9132,7 @@
     <mergeCell ref="J1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:K8 L3:M4 N3:N8 N10:N21 J10:K21">
-    <cfRule type="containsText" dxfId="63" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -9048,7 +9147,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L8 L10:L21">
-    <cfRule type="containsText" dxfId="62" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -9063,7 +9162,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="containsText" dxfId="61" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -9078,7 +9177,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M8 M10:M21">
-    <cfRule type="containsText" dxfId="60" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -9093,7 +9192,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="containsText" dxfId="59" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -9108,7 +9207,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -9123,7 +9222,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -9138,7 +9237,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -9153,7 +9252,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -9168,7 +9267,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -9211,35 +9310,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -9336,16 +9435,16 @@
         <v>435</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="18" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="18" t="s">
         <v>68</v>
       </c>
       <c r="I4" s="10" t="s">
@@ -9386,7 +9485,7 @@
       <c r="E5" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="18" t="s">
         <v>290</v>
       </c>
       <c r="G5" s="10" t="s">
@@ -9395,7 +9494,7 @@
       <c r="H5" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="18" t="s">
         <v>290</v>
       </c>
       <c r="J5" s="1">
@@ -9429,19 +9528,19 @@
         <v>435</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="18" t="s">
         <v>262</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -9475,19 +9574,19 @@
         <v>435</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="18" t="s">
         <v>53</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -9521,19 +9620,19 @@
         <v>436</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="18" t="s">
         <v>263</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -9567,19 +9666,19 @@
         <v>436</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="18" t="s">
         <v>264</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -9613,19 +9712,19 @@
         <v>436</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="18" t="s">
         <v>265</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -9659,19 +9758,19 @@
         <v>436</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="18" t="s">
         <v>266</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -9705,19 +9804,19 @@
         <v>436</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="18" t="s">
         <v>267</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -9751,19 +9850,19 @@
         <v>436</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="18" t="s">
         <v>268</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -9797,19 +9896,19 @@
         <v>436</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="I14" s="29" t="s">
+      <c r="I14" s="18" t="s">
         <v>269</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -9843,19 +9942,19 @@
         <v>436</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="I15" s="29" t="s">
+      <c r="I15" s="18" t="s">
         <v>270</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -9889,19 +9988,19 @@
         <v>436</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="H16" s="29" t="s">
+      <c r="H16" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="I16" s="29" t="s">
+      <c r="I16" s="18" t="s">
         <v>271</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -9935,19 +10034,19 @@
         <v>436</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="18" t="s">
         <v>272</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -9981,19 +10080,19 @@
         <v>436</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="18" t="s">
         <v>372</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="18" t="s">
         <v>372</v>
       </c>
-      <c r="H18" s="29" t="s">
+      <c r="H18" s="18" t="s">
         <v>372</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="18" t="s">
         <v>372</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -10027,19 +10126,19 @@
         <v>436</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="H19" s="29" t="s">
+      <c r="H19" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="I19" s="29" t="s">
+      <c r="I19" s="18" t="s">
         <v>373</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -10073,19 +10172,19 @@
         <v>436</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="H20" s="29" t="s">
+      <c r="H20" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="I20" s="29" t="s">
+      <c r="I20" s="18" t="s">
         <v>369</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -10117,7 +10216,7 @@
     <mergeCell ref="J1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J20 K3:K4 L3:M3 N3:N20">
-    <cfRule type="containsText" dxfId="58" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -10132,7 +10231,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K20">
-    <cfRule type="containsText" dxfId="57" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -10147,7 +10246,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="containsText" dxfId="56" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -10162,7 +10261,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="containsText" dxfId="55" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -10177,7 +10276,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L20">
-    <cfRule type="containsText" dxfId="54" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -10192,7 +10291,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -10207,7 +10306,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="containsText" dxfId="52" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -10222,7 +10321,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M20">
-    <cfRule type="containsText" dxfId="51" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -10244,13 +10343,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10265,35 +10364,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="27" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -10374,13 +10473,13 @@
         <v>0</v>
       </c>
       <c r="O3" s="17" t="str">
-        <f t="shared" ref="O3:O20" si="0">IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-"),AND(M3&gt;1,M3&lt;&gt;"-"),AND(N3&gt;1,N3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="O3:O21" si="0">IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-"),AND(M3&gt;1,M3&lt;&gt;"-"),AND(N3&gt;1,N3&lt;&gt;"-")),"Can exchange","")</f>
         <v>Can exchange</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>439</v>
@@ -10388,35 +10487,37 @@
       <c r="C4" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="D4" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="1">
         <v>0</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O4" s="17" t="str">
@@ -10426,7 +10527,7 @@
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>439</v>
@@ -10436,33 +10537,33 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>290</v>
+        <v>381</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>390</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
       </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1" t="s">
+      <c r="K5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
         <v>0</v>
       </c>
       <c r="O5" s="17" t="str">
@@ -10472,7 +10573,7 @@
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>439</v>
@@ -10481,34 +10582,34 @@
         <v>435</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
+      <c r="E6" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O6" s="17" t="str">
@@ -10518,7 +10619,7 @@
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>439</v>
@@ -10527,20 +10628,20 @@
         <v>435</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>53</v>
+      <c r="E7" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>391</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>0</v>
@@ -10554,7 +10655,7 @@
       <c r="M7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="1">
         <v>0</v>
       </c>
       <c r="O7" s="17" t="str">
@@ -10564,29 +10665,29 @@
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>439</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>263</v>
+      <c r="E8" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>53</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>0</v>
@@ -10610,7 +10711,7 @@
     </row>
     <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>439</v>
@@ -10619,20 +10720,20 @@
         <v>436</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>264</v>
+      <c r="E9" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>263</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>0</v>
@@ -10656,7 +10757,7 @@
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>439</v>
@@ -10665,20 +10766,20 @@
         <v>436</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>265</v>
+      <c r="E10" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>264</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>0</v>
@@ -10702,7 +10803,7 @@
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>439</v>
@@ -10711,20 +10812,20 @@
         <v>436</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>266</v>
+      <c r="E11" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>265</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>0</v>
@@ -10748,7 +10849,7 @@
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>439</v>
@@ -10757,20 +10858,20 @@
         <v>436</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>267</v>
+      <c r="E12" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>266</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>0</v>
@@ -10794,7 +10895,7 @@
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>439</v>
@@ -10803,20 +10904,20 @@
         <v>436</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="I13" s="29" t="s">
-        <v>268</v>
+      <c r="E13" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>267</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>0</v>
@@ -10840,7 +10941,7 @@
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>439</v>
@@ -10849,20 +10950,20 @@
         <v>436</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="I14" s="29" t="s">
-        <v>269</v>
+      <c r="E14" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>268</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>0</v>
@@ -10886,7 +10987,7 @@
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>439</v>
@@ -10895,20 +10996,20 @@
         <v>436</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="I15" s="29" t="s">
-        <v>270</v>
+      <c r="E15" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>269</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>0</v>
@@ -10932,7 +11033,7 @@
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>439</v>
@@ -10941,20 +11042,20 @@
         <v>436</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="H16" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="I16" s="29" t="s">
-        <v>271</v>
+      <c r="E16" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>270</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>0</v>
@@ -10978,7 +11079,7 @@
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>439</v>
@@ -10987,20 +11088,20 @@
         <v>436</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>272</v>
+      <c r="E17" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>271</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>0</v>
@@ -11024,7 +11125,7 @@
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>439</v>
@@ -11033,20 +11134,20 @@
         <v>436</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="29" t="s">
-        <v>367</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>372</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>372</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>372</v>
-      </c>
-      <c r="I18" s="29" t="s">
-        <v>372</v>
+      <c r="E18" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>272</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>0</v>
@@ -11070,7 +11171,7 @@
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>439</v>
@@ -11079,20 +11180,20 @@
         <v>436</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>373</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>373</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>373</v>
-      </c>
-      <c r="I19" s="29" t="s">
-        <v>373</v>
+      <c r="E19" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>372</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>0</v>
@@ -11116,7 +11217,7 @@
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>439</v>
@@ -11125,37 +11226,83 @@
         <v>436</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O20" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F21" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G21" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="H20" s="29" t="s">
+      <c r="H21" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="I20" s="29" t="s">
+      <c r="I21" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O20" s="17" t="str">
+      <c r="J21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O21" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11168,9 +11315,69 @@
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="J1:N1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J3:J20 K3:M3 N3:N20">
-    <cfRule type="containsText" dxfId="50" priority="23" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J3:N3 J5:J21 L4 N5:N21">
+    <cfRule type="containsText" dxfId="49" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6">
+    <cfRule type="containsText" dxfId="48" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K6))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:K21">
+    <cfRule type="containsText" dxfId="47" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K7))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="containsText" dxfId="46" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K5))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6">
+    <cfRule type="containsText" dxfId="45" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
       <colorScale>
@@ -11183,9 +11390,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="containsText" dxfId="49" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K5))))</formula>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="containsText" dxfId="44" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
       <colorScale>
@@ -11198,9 +11405,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:K20">
-    <cfRule type="containsText" dxfId="48" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K6))))</formula>
+  <conditionalFormatting sqref="L7:L21">
+    <cfRule type="containsText" dxfId="43" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
       <colorScale>
@@ -11213,24 +11420,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="containsText" dxfId="47" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="containsText" dxfId="46" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L5))))</formula>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="containsText" dxfId="42" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
       <colorScale>
@@ -11243,9 +11435,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
-    <cfRule type="containsText" dxfId="45" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
+  <conditionalFormatting sqref="M6">
+    <cfRule type="containsText" dxfId="41" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
       <colorScale>
@@ -11258,9 +11450,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L20">
-    <cfRule type="containsText" dxfId="44" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L6))))</formula>
+  <conditionalFormatting sqref="M7:M21">
+    <cfRule type="containsText" dxfId="40" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
@@ -11273,9 +11465,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4">
-    <cfRule type="containsText" dxfId="43" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M4))))</formula>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
@@ -11288,9 +11480,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="containsText" dxfId="42" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M5))))</formula>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -11303,11 +11495,26 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M20">
-    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M6))))</formula>
+  <conditionalFormatting sqref="M4">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(N4))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -11332,7 +11539,7 @@
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11347,35 +11554,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="27" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -11523,10 +11730,10 @@
       <c r="F5" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="18" t="s">
         <v>290</v>
       </c>
       <c r="I5" s="10" t="s">
@@ -11563,19 +11770,19 @@
         <v>435</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="18" t="s">
         <v>262</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -11609,19 +11816,19 @@
         <v>435</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="18" t="s">
         <v>53</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -11648,28 +11855,28 @@
       <c r="A8" s="7">
         <v>2007</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="30" t="s">
+      <c r="B8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="19" t="s">
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -11742,28 +11949,28 @@
       <c r="A10" s="7">
         <v>2009</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="30" t="s">
+      <c r="B10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="19" t="s">
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -11882,28 +12089,28 @@
       <c r="A13" s="7">
         <v>2012</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="30" t="s">
+      <c r="B13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="19" t="s">
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -11930,28 +12137,28 @@
       <c r="A14" s="7">
         <v>2013</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="30" t="s">
+      <c r="B14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="19" t="s">
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -12024,28 +12231,28 @@
       <c r="A16" s="7">
         <v>2015</v>
       </c>
-      <c r="B16" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="30" t="s">
+      <c r="B16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="19" t="s">
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -12164,28 +12371,28 @@
       <c r="A19" s="7">
         <v>2018</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="30" t="s">
+      <c r="B19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="19" t="s">
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -12263,7 +12470,7 @@
     <mergeCell ref="J1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J20 K3:K5 L3:M4 N3:N5">
-    <cfRule type="containsText" dxfId="40" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="74">
@@ -12278,7 +12485,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K12 K9 K15 K17:K18 K20">
-    <cfRule type="containsText" dxfId="39" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="72">
@@ -12293,7 +12500,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="containsText" dxfId="38" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -12308,7 +12515,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="containsText" dxfId="37" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="68">
@@ -12323,7 +12530,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="containsText" dxfId="36" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="66">
@@ -12338,7 +12545,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="containsText" dxfId="35" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K10))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="64">
@@ -12353,7 +12560,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="34" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="62">
@@ -12368,7 +12575,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="33" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -12383,7 +12590,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="containsText" dxfId="32" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="58">
@@ -12398,7 +12605,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="containsText" dxfId="31" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -12413,7 +12620,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L12 L9 L15 L17:L18 L20">
-    <cfRule type="containsText" dxfId="30" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="52">
@@ -12428,7 +12635,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="containsText" dxfId="29" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -12443,7 +12650,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="containsText" dxfId="28" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="48">
@@ -12458,7 +12665,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="containsText" dxfId="27" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="46">
@@ -12473,7 +12680,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="containsText" dxfId="26" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L10))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -12488,7 +12695,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="containsText" dxfId="25" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="42">
@@ -12503,7 +12710,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="containsText" dxfId="24" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -12518,7 +12725,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="containsText" dxfId="23" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
@@ -12533,7 +12740,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="containsText" dxfId="22" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
@@ -12548,7 +12755,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="containsText" dxfId="21" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -12563,7 +12770,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="containsText" dxfId="20" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -12578,7 +12785,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9 M11">
-    <cfRule type="containsText" dxfId="19" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -12593,7 +12800,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="containsText" dxfId="18" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -12608,7 +12815,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="containsText" dxfId="17" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -12623,7 +12830,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="containsText" dxfId="16" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -12638,7 +12845,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M10))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -12653,7 +12860,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -12668,7 +12875,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17:M18 M15 M20">
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -12683,7 +12890,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -12698,7 +12905,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -12713,7 +12920,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -12728,7 +12935,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -12743,7 +12950,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:N20">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -12758,7 +12965,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -12773,7 +12980,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -12788,7 +12995,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -12810,13 +13017,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12881,16 +13088,40 @@
         <v>25</v>
       </c>
     </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>442</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Collections/Евро/Germany/#EURO#Germany#Regular[2002-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Germany/#EURO#Germany#Regular[2002-present]#circulation_quality.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -3013,6 +3013,15 @@
   </cellStyles>
   <dxfs count="98">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -3772,15 +3781,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3812,9 +3812,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="97"/>
-    <tableColumn id="2" name="Link" dataDxfId="96" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="95"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4974,7 +4974,7 @@
     <mergeCell ref="J1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J20 K3:M3 N3:N20">
-    <cfRule type="containsText" dxfId="94" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -4989,7 +4989,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K6 K8:K20">
-    <cfRule type="containsText" dxfId="93" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -5004,7 +5004,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="containsText" dxfId="92" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -5019,7 +5019,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="containsText" dxfId="91" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -5034,7 +5034,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L20">
-    <cfRule type="containsText" dxfId="90" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -5049,7 +5049,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:L6">
-    <cfRule type="containsText" dxfId="89" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -5064,7 +5064,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="containsText" dxfId="88" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -5079,7 +5079,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="containsText" dxfId="87" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -5094,7 +5094,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M20">
-    <cfRule type="containsText" dxfId="86" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -5109,7 +5109,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:M6">
-    <cfRule type="containsText" dxfId="85" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -5124,7 +5124,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="containsText" dxfId="84" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -5139,7 +5139,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="containsText" dxfId="83" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -6052,7 +6052,7 @@
     <mergeCell ref="J1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:N20">
-    <cfRule type="containsText" dxfId="82" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -6965,7 +6965,7 @@
     <mergeCell ref="J1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J20 K3:M3 N3:N20">
-    <cfRule type="containsText" dxfId="81" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -6980,7 +6980,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K20">
-    <cfRule type="containsText" dxfId="80" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -6995,7 +6995,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="containsText" dxfId="79" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -7010,7 +7010,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:L20">
-    <cfRule type="containsText" dxfId="78" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -7025,7 +7025,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="containsText" dxfId="77" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -7040,7 +7040,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:M20">
-    <cfRule type="containsText" dxfId="76" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -7055,7 +7055,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -8050,7 +8050,7 @@
     <mergeCell ref="J1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J21 K5:M6 N5:N21 K3:N4">
-    <cfRule type="containsText" dxfId="74" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -8065,7 +8065,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:K21">
-    <cfRule type="containsText" dxfId="73" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -8080,7 +8080,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:K18">
-    <cfRule type="containsText" dxfId="72" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -8095,7 +8095,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19:L21">
-    <cfRule type="containsText" dxfId="71" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -8110,7 +8110,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:L18">
-    <cfRule type="containsText" dxfId="70" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -8125,7 +8125,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19:M21">
-    <cfRule type="containsText" dxfId="69" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -8140,7 +8140,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:M18">
-    <cfRule type="containsText" dxfId="68" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -9132,7 +9132,7 @@
     <mergeCell ref="J1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:K8 L3:M4 N3:N8 N10:N21 J10:K21">
-    <cfRule type="containsText" dxfId="67" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -9147,7 +9147,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L8 L10:L21">
-    <cfRule type="containsText" dxfId="66" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -9162,7 +9162,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="containsText" dxfId="65" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -9177,7 +9177,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M8 M10:M21">
-    <cfRule type="containsText" dxfId="64" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -9192,7 +9192,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="containsText" dxfId="63" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -9207,7 +9207,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="containsText" dxfId="62" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -9222,7 +9222,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="containsText" dxfId="61" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -9237,7 +9237,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">
-    <cfRule type="containsText" dxfId="60" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -9252,7 +9252,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="containsText" dxfId="59" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -9267,7 +9267,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="containsText" dxfId="58" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -10216,7 +10216,7 @@
     <mergeCell ref="J1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J20 K3:K4 L3:M3 N3:N20">
-    <cfRule type="containsText" dxfId="57" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -10231,7 +10231,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K20">
-    <cfRule type="containsText" dxfId="56" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -10246,7 +10246,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="containsText" dxfId="55" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -10261,7 +10261,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="containsText" dxfId="54" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -10276,7 +10276,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L20">
-    <cfRule type="containsText" dxfId="53" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -10291,7 +10291,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="containsText" dxfId="52" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -10306,7 +10306,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="containsText" dxfId="51" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -10321,7 +10321,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M20">
-    <cfRule type="containsText" dxfId="50" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -10345,7 +10345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -11316,7 +11316,7 @@
     <mergeCell ref="J1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:N3 J5:J21 L4 N5:N21">
-    <cfRule type="containsText" dxfId="49" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -11331,7 +11331,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="containsText" dxfId="48" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -11346,7 +11346,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:K21">
-    <cfRule type="containsText" dxfId="47" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -11361,7 +11361,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="containsText" dxfId="46" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -11376,7 +11376,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="containsText" dxfId="45" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -11391,7 +11391,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="containsText" dxfId="44" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -11406,7 +11406,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:L21">
-    <cfRule type="containsText" dxfId="43" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -11421,7 +11421,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="containsText" dxfId="42" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -11436,7 +11436,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="containsText" dxfId="41" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -11451,7 +11451,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7:M21">
-    <cfRule type="containsText" dxfId="40" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -11466,7 +11466,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -11481,7 +11481,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -11496,7 +11496,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -11511,7 +11511,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -12470,7 +12470,7 @@
     <mergeCell ref="J1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J20 K3:K5 L3:M4 N3:N5">
-    <cfRule type="containsText" dxfId="39" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="74">
@@ -12485,7 +12485,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K12 K9 K15 K17:K18 K20">
-    <cfRule type="containsText" dxfId="38" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="72">
@@ -12500,7 +12500,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="containsText" dxfId="37" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -12515,7 +12515,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="containsText" dxfId="36" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="68">
@@ -12530,7 +12530,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="containsText" dxfId="35" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="66">
@@ -12545,7 +12545,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="containsText" dxfId="34" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K10))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="64">
@@ -12560,7 +12560,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="33" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="62">
@@ -12575,7 +12575,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="32" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -12590,7 +12590,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="containsText" dxfId="31" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="58">
@@ -12605,7 +12605,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="containsText" dxfId="30" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -12620,7 +12620,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L12 L9 L15 L17:L18 L20">
-    <cfRule type="containsText" dxfId="29" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="52">
@@ -12635,7 +12635,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="containsText" dxfId="28" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -12650,7 +12650,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="containsText" dxfId="27" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="48">
@@ -12665,7 +12665,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="containsText" dxfId="26" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="46">
@@ -12680,7 +12680,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="containsText" dxfId="25" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L10))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -12695,7 +12695,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="containsText" dxfId="24" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="42">
@@ -12710,7 +12710,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="containsText" dxfId="23" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -12725,7 +12725,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="containsText" dxfId="22" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
@@ -12740,7 +12740,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="containsText" dxfId="21" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
@@ -12755,7 +12755,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="containsText" dxfId="20" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -12770,7 +12770,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="containsText" dxfId="19" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -12784,8 +12784,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M9 M11">
-    <cfRule type="containsText" dxfId="18" priority="29" operator="containsText" text="*-">
+  <conditionalFormatting sqref="M11 M9">
+    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -12800,7 +12800,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="containsText" dxfId="17" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -12815,7 +12815,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="containsText" dxfId="16" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -12830,7 +12830,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="containsText" dxfId="15" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -12845,7 +12845,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="containsText" dxfId="14" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M10))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -12860,7 +12860,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="containsText" dxfId="13" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -12875,7 +12875,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17:M18 M15 M20">
-    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M15))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -12890,7 +12890,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -12905,7 +12905,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -12920,7 +12920,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -12935,7 +12935,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -12950,7 +12950,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:N20">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -12965,7 +12965,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -12980,7 +12980,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -12995,7 +12995,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -13019,11 +13019,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:C7"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13116,8 +13116,8 @@
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
